--- a/literature survey (lane keep)/literature survey for laane keep methods.xlsx
+++ b/literature survey (lane keep)/literature survey for laane keep methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Academic\Final Year Project 1\EE405-Project\literature survey (lane keep)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CBC816-2448-4D7D-9E8E-081438AAD0C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EAD322-4E05-4368-BB8F-19C2DB94475A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{4DFB5F53-A43E-4D03-B1DA-6898931C6F6F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">literature survey for lane keep methods </t>
   </si>
@@ -55,13 +55,26 @@
   </si>
   <si>
     <t>There are some calculations and a good detailed explanation. This uses a point on the line that was detected by the camera and using that as an initial point, calculations to give linear position, angle, linear velocity, and angular velocity.</t>
+  </si>
+  <si>
+    <t>Design of a Reinforcement Learning-Based Lane Keeping Planning Agent for Automated Vehicles</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2076-3417/10/20/7171</t>
+  </si>
+  <si>
+    <t>The paper deals with the design of a lateral control agent and proposes two new algorithms that utilize planning after learning in the prediction phase that incorporate the real-time applicability of the neural networks with the robustness of the Monte Carlo tree search (MCTS), which can overcome both algorithms’ limitations. Moreover, this paper presents a unique implementation of the MCTS that enables the utilization of such a tree search algorithm in a computationally exhausting control task like that. It also compares the performance of both the original and the new MCTS concept.</t>
+  </si>
+  <si>
+    <t>Uses DL
+Have referred to many research papers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +97,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="URWPalladioL-Roma"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,10 +153,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,6 +166,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -146,13 +176,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,27 +560,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1751CC88-0703-4F9C-9FAD-576DAA59DCEE}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="68.140625" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -559,74 +597,84 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="285" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:6" ht="285" customHeight="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="159" customHeight="1">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -637,8 +685,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{57A11BCB-F914-4B8F-AE31-727E00409585}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{DCBA5328-9D35-4B72-BDAF-DDAE5B458293}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/literature survey (lane keep)/literature survey for laane keep methods.xlsx
+++ b/literature survey (lane keep)/literature survey for laane keep methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Academic\Final Year Project 1\EE405-Project\literature survey (lane keep)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EAD322-4E05-4368-BB8F-19C2DB94475A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79BAC47-1C47-4BC6-BB36-9040F69FDF05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{4DFB5F53-A43E-4D03-B1DA-6898931C6F6F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">literature survey for lane keep methods </t>
   </si>
@@ -68,13 +68,25 @@
   <si>
     <t>Uses DL
 Have referred to many research papers</t>
+  </si>
+  <si>
+    <t>Automatic Lane Keeping of a Vehicle Based on Perception Net</t>
+  </si>
+  <si>
+    <t>https://www.spiedigitallibrary.org/conference-proceedings-of-spie/4196/0000/Automatic-lane-keeping-of-a-vehicle-based-on-perception-net/10.1117/12.403729.full?SSO=1</t>
+  </si>
+  <si>
+    <t>The objective of this research is to monitor and control the vehicle motion in order to remove out the existing safety risk based upon the human-machine cooperative vehicle control. A predictive control method is proposed to control the steering wheel of the vehicle to keep the lane. Desired angle of the steering wheel to control the vehicle motion could be calculated based upon vehicle dynamics, current and estimated pose of the vehicle every sample steps. The vehicle pose and the road curvature were calculated by geometrically fusing sensor data from camera image, tachometer and steering wheel encoder through the Perception Net, where not only the state variables, but also the corresponding uncertainties were propagated in forward and backward direction in such a way to satisfy the given constraint condition, maintain consistency, reduce the uncertainties, and guarantee robustness. A series of experiments was conducted to evaluate the control performance, in which a car like robot was utilized to quit unwanted safety problem. As the results, the robot was keeping very well a given lane with arbitrary shape at moderate speed.</t>
+  </si>
+  <si>
+    <t>Perception Net: A Multimodal Deep Neural Network for Machine Perception</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +122,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="URWPalladioL-Roma"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404041"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -169,12 +187,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -187,6 +199,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -250,6 +277,56 @@
         <a:xfrm>
           <a:off x="6115051" y="809626"/>
           <a:ext cx="3067050" cy="3296928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3405905</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>31198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBF0727-BB3A-4749-9E85-D92840DB2C7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="7962900"/>
+          <a:ext cx="8092205" cy="6193873"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -560,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1751CC88-0703-4F9C-9FAD-576DAA59DCEE}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -572,13 +649,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -604,11 +681,11 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
@@ -619,52 +696,62 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="2"/>
+    <row r="5" spans="1:6" ht="243">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6">
@@ -688,9 +775,10 @@
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{57A11BCB-F914-4B8F-AE31-727E00409585}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{DCBA5328-9D35-4B72-BDAF-DDAE5B458293}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{CCA3AA5C-24DA-4122-B084-EF5677EF1E35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/literature survey (lane keep)/literature survey for laane keep methods.xlsx
+++ b/literature survey (lane keep)/literature survey for laane keep methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Academic\Final Year Project 1\EE405-Project\literature survey (lane keep)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79BAC47-1C47-4BC6-BB36-9040F69FDF05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B9D7F4-25D7-4B05-82B8-74B932F41F5B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{4DFB5F53-A43E-4D03-B1DA-6898931C6F6F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">literature survey for lane keep methods </t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>There are some calculations and a good detailed explanation. This uses a point on the line that was detected by the camera and using that as an initial point, calculations to give linear position, angle, linear velocity, and angular velocity.</t>
-  </si>
-  <si>
-    <t>Design of a Reinforcement Learning-Based Lane Keeping Planning Agent for Automated Vehicles</t>
   </si>
   <si>
     <t>https://www.mdpi.com/2076-3417/10/20/7171</t>
@@ -80,13 +77,28 @@
   </si>
   <si>
     <t>Perception Net: A Multimodal Deep Neural Network for Machine Perception</t>
+  </si>
+  <si>
+    <t>pure pursuit steering controller is based on AI</t>
+  </si>
+  <si>
+    <t>On the Image Sensor Processing for Lane Detection and Control in Vehicle Lane Keeping Systems</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/1424-8220/19/7/1665</t>
+  </si>
+  <si>
+    <t>Lane keeping systems for a keeping a vehicle in the desired lane is key to advanced driving assistance system in autonomous vehicles. This paper presents a cost-effective image sensor with efficient processing algorithm for lane detection and lane control applications to autonomous delivery systems. The algorithm includes (1) lane detection by inverse perspective mapping and random sample consensus parabola fitting and (2) lane control by pure pursuit steering controller and classical proportional integral speed controller based on a nonholonomic kinematic model. The image sensor experiments conducted on a 1/10 scale model car maneuvering in a straight–curve–straight lane validate the better processing performance before, during, and after the turning section over previous work. The image sensor with the processing algorithm achieves the average lane detection error within 5% and maximum cross-track error within 9% in real-time. The development shall pave the way to cost-effective autonomous delivery systems.</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +138,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF404041"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -175,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,20 +218,29 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -637,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1751CC88-0703-4F9C-9FAD-576DAA59DCEE}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -649,13 +676,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -697,41 +724,51 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="243">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="179.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2"/>
@@ -776,9 +813,10 @@
     <hyperlink ref="C4" r:id="rId1" xr:uid="{57A11BCB-F914-4B8F-AE31-727E00409585}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{DCBA5328-9D35-4B72-BDAF-DDAE5B458293}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{CCA3AA5C-24DA-4122-B084-EF5677EF1E35}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{D424393D-5133-4F48-976C-80F372BFA40C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/literature survey (lane keep)/literature survey for laane keep methods.xlsx
+++ b/literature survey (lane keep)/literature survey for laane keep methods.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Academic\Final Year Project 1\EE405-Project\literature survey (lane keep)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Academic\Final Year Project 1\With ROS\EE405-Project\literature survey (lane keep)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B9D7F4-25D7-4B05-82B8-74B932F41F5B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E455FEA5-3548-431D-9B6E-9DA8879D3DD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{4DFB5F53-A43E-4D03-B1DA-6898931C6F6F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">literature survey for lane keep methods </t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -227,20 +230,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -662,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1751CC88-0703-4F9C-9FAD-576DAA59DCEE}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -675,16 +678,16 @@
     <col min="5" max="5" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" ht="31.5" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" ht="21.75" customHeight="1">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -701,7 +704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="285" customHeight="1">
+    <row r="3" spans="1:10" ht="285" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -718,8 +721,11 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="159" customHeight="1">
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="159" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -736,7 +742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="243">
+    <row r="5" spans="1:10" ht="243">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -753,52 +759,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="179.25">
+    <row r="6" spans="1:10" ht="179.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="8"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="8"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>

--- a/literature survey (lane keep)/literature survey for laane keep methods.xlsx
+++ b/literature survey (lane keep)/literature survey for laane keep methods.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Academic\Final Year Project 1\EE405-Project\literature survey (lane keep)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\acadamic\fyp\git codes\EE405-Project\literature survey (lane keep)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B9D7F4-25D7-4B05-82B8-74B932F41F5B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73350036-8575-47AC-B945-8F7EF29B7C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{4DFB5F53-A43E-4D03-B1DA-6898931C6F6F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4DFB5F53-A43E-4D03-B1DA-6898931C6F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t xml:space="preserve">literature survey for lane keep methods </t>
   </si>
@@ -92,6 +93,75 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>Research Paper</t>
+  </si>
+  <si>
+    <t>Target Area</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Conclution</t>
+  </si>
+  <si>
+    <t>LaneNet: Real-Time Lane Detection Networks for Autonomous Driving</t>
+  </si>
+  <si>
+    <t>Lane Detection</t>
+  </si>
+  <si>
+    <t>The architecture of LaneNet consists of encoder-decoder networks. The encoder extracts features from the input image, while the decoder progressively recovers the resolution of the feature map to produce the lane edge proposal map. Depthwise separable convolutions and 1x1 convolutions are used in the encoder to reduce computational cost, and dilated convolutions are employed to enlarge the receptive field without significantly increasing parameters or computational cost.</t>
+  </si>
+  <si>
+    <t>Design of Lane Keeping Algorithm of Autonomous Vehicle</t>
+  </si>
+  <si>
+    <t>Keep the vehicle in the lane</t>
+  </si>
+  <si>
+    <t>LaneNet aims to be a generalized, low computational cost, and real-time solution for lane detection, suitable for deployment in vehicle-based systems.</t>
+  </si>
+  <si>
+    <t>The lane detection is based on the output of a camera mounted on the go-cart, which provides information about the position of lane marker lines. The camera evaluates the image and detects lines, transforming the detected lines to an appropriate coordinate system. The relative position of the vehicle to an identified line is described by lateral error (distance between the vehicle and the line) and yaw error (angle between the longitudinal axis of the vehicle and the tangent to the line).</t>
+  </si>
+  <si>
+    <t>The paper underscores the importance of robust control strategies and accurate lane detection techniques for the successful operation of autonomous vehicles, particularly in scenarios where precise navigation based on road markings is required. Additionally, it highlights the significance of considering factors such as vehicle dynamics, disturbances, and sensor capabilities in the development of autonomous driving systems.</t>
+  </si>
+  <si>
+    <t>CLRerNet: Improving Confidence of Lane Detection with LaneIoU</t>
+  </si>
+  <si>
+    <t>This architecture includes components for anchor parameter prediction, confidence score calculation, and lane coordinate regression. Loss functions are defined to optimize these components during training</t>
+  </si>
+  <si>
+    <t>The methodology heavily relies on deep learning techniques, particularly convolutional neural networks (CNNs), for lane detection. These networks are trained to detect lane markers in images captured by vehicle-mounted cameras. Different representations of lanes are explored, including segmentation-based, keypoint-based, parametric, and row-based representations. The row-based representation, which treats lanes as sets of coordinates on horizontal lines, is chosen as the focus due to its superior performance.</t>
+  </si>
+  <si>
+    <t>Automatic lane keeping of a vehicle based on perception net</t>
+  </si>
+  <si>
+    <t>Lane Keep algorithm</t>
+  </si>
+  <si>
+    <t>Proposes a predictive control method to calculate the desired steering angle based on vehicle dynamics, current and estimated pose of the vehicle, and road curvature. Utilizes a Perception Net framework for estimating vehicle pose relative to the road and road curvature. This involves geometrically fusing sensor data from camera images, tachometer, and steering wheel encoder to calculate the vehicle's position and orientation. Integrates sensor data fusion techniques to reduce computational burden and increase robustness. This includes modeling the lane as three connected rectangular plates and using Perception-Net for estimation, considering uncertainties and constraints.</t>
+  </si>
+  <si>
+    <t>The Perception-Net-based estimation method effectively estimates vehicle pose relative to the road and road curvature, enabling accurate lane keeping control.  The developed control algorithm successfully maintains the vehicle within the lane, with the lateral distance from the lane center kept within a specified threshold.</t>
+  </si>
+  <si>
+    <t>OntheImage Sensor Processing for Lane Detection and Control in Vehicle Lane Keeping Systems</t>
+  </si>
+  <si>
+    <t>Lane Detection and control</t>
+  </si>
+  <si>
+    <t>the developed image sensor and processing algorithm offer a viable solution for lane detection and control in autonomous vehicles, particularly in the context of delivery systems. By leveraging a low-cost image sensor and efficient algorithms, the study addresses the need for accurate lane keeping without heavy computational loads. The experimental results indicate significant improvements in processing performance, highlighting the potential for practical application in real-world scenarios</t>
+  </si>
+  <si>
+    <t>the algorithm encompasses two main components: lane detection and lane control. Lane detection involves inverse perspective mapping and random sample consensus parabola fitting for accurate positioning of the vehicle relative to the lane markings. Lane control utilizes a pure pursuit steering controller and a classical proportional integral speed controller based on a nonholonomic kinematic model to ensure the vehicle stays within the desired lane. Experimental validation was conducted using a 1/10 scale model car navigating through straight and curved lanes, demonstrating improved processing performance compared to previous approaches. The image sensor with the processing algorithm achieved satisfactory lane detection accuracy in real-time, paving the way for cost-effective autonomous delivery systems.</t>
   </si>
 </sst>
 </file>
@@ -193,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,20 +297,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -664,25 +743,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1751CC88-0703-4F9C-9FAD-576DAA59DCEE}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="68.140625" customWidth="1"/>
+    <col min="2" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="68.109375" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -736,7 +815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="243">
+    <row r="5" spans="1:6" ht="235.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -753,20 +832,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="179.25">
+    <row r="6" spans="1:6" ht="185.4">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -819,4 +898,114 @@
   <pageSetup orientation="portrait" r:id="rId5"/>
   <drawing r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC2A986-FCA5-4295-BDA3-18E115895620}">
+  <dimension ref="D5:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="57" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.88671875" customWidth="1"/>
+    <col min="7" max="7" width="54.44140625" customWidth="1"/>
+    <col min="9" max="9" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:7">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" ht="102" customHeight="1">
+      <c r="D6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="100.8">
+      <c r="D7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="100.8">
+      <c r="D8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="129.6">
+      <c r="D9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="184.8" customHeight="1">
+      <c r="D10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>